--- a/variables.xlsx
+++ b/variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Academic\Caltech\Research\9DNS\channel_rough\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE92E51-97DE-4ED5-B830-6DFB3AF57E6F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A76D81F-86AE-4A43-8084-35AFFA7CED01}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="4272" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{403C3A4F-5479-4301-A5A6-5D3962BEC53A}"/>
+    <workbookView xWindow="-30828" yWindow="4272" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{403C3A4F-5479-4301-A5A6-5D3962BEC53A}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="182">
   <si>
     <t>numprocs</t>
   </si>
@@ -323,23 +323,7 @@
     <t>(time stepper)</t>
   </si>
   <si>
-    <t>loop over z; call Lapvdv(phi(0,i,k),hg(0,i,k),hv(0,i,k), rk,bcb,bct)</t>
-  </si>
-  <si>
-    <t>phi in z slices</t>
-  </si>
-  <si>
     <t>start with everything in z slices</t>
-  </si>
-  <si>
-    <t>calculate the v from phi ??</t>
-  </si>
-  <si>
-    <t>call deryr(u00wk,rf0u,my)
-call deryr(w00wk,rf0w,my)</t>
-  </si>
-  <si>
-    <t>loop rkstep</t>
   </si>
   <si>
     <t xml:space="preserve">    call deryr2(vorwk,dvordy,(mx1+1)*mmz,my,chwk)</t>
@@ -357,15 +341,7 @@
     <t xml:space="preserve">    change to z slices</t>
   </si>
   <si>
-    <t xml:space="preserve">    call Lapv1(rf0u,u00wk,rk,bcbr,bctr)
-    call Lapv1(rf0w,w00wk,rk,bcbr,bctr)</t>
-  </si>
-  <si>
     <t xml:space="preserve">    loop over z: k = kb,ke;         call lapsov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    call Lapv1(rf0u,rf0u,rk,bcbr,bctr)
-    call Lapv1(rf0w,rf0w,rk,bcbr,bctr)</t>
   </si>
   <si>
     <t xml:space="preserve">y derivative of vorticity </t>
@@ -616,6 +592,49 @@
   </si>
   <si>
     <t>every step writes execution time</t>
+  </si>
+  <si>
+    <t>if (collectFlowfield) then write to hdf</t>
+  </si>
+  <si>
+    <t>call assess_whether_to_collect_flowfield(istep)</t>
+  </si>
+  <si>
+    <t>loop over time step</t>
+  </si>
+  <si>
+    <t>special first step treatment</t>
+  </si>
+  <si>
+    <t>loop rkstep = 1,3</t>
+  </si>
+  <si>
+    <t>This changes the collectFlowfield to 1 if it is the step to collect, and change to 0 if not</t>
+  </si>
+  <si>
+    <t>This saves the result from previous step, but it is the step that is wanted, since the  assess_whether_to_collect_flowfield(istep) is after this line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    if (collectFlowfield .and. rkstep==1) then
+           call save_velocity_at_wallparallel_plane_to_buffer
+           call save_vorticity_at_wallparallel_plane_to_buffer</t>
+  </si>
+  <si>
+    <t>ENDDO rkstep loop</t>
+  </si>
+  <si>
+    <t>call Lapv1(rf0u,u00wk,rk,bcbr,bctr)
+call Lapv1(rf0w,w00wk,rk,bcbr,bctr)</t>
+  </si>
+  <si>
+    <t>call Lapv1(rf0u,rf0u,rk,bcbr,bctr)
+call Lapv1(rf0w,rf0w,rk,bcbr,bctr)</t>
+  </si>
+  <si>
+    <t>if (ihist.eq.1) then write to cf and write to output file</t>
+  </si>
+  <si>
+    <t>time=time+Deltat</t>
   </si>
 </sst>
 </file>
@@ -672,14 +691,14 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1113,95 +1132,95 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B24" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B25" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B26" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B27" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B28" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B30" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B31" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B32" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B33" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B34" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B35" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1211,10 +1230,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4635D2BC-5896-4FC7-82CD-225F6BC3F537}">
-  <dimension ref="A1:E96"/>
+  <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="E84" sqref="E84"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1223,7 +1242,7 @@
     <col min="2" max="2" width="15.265625" customWidth="1"/>
     <col min="3" max="3" width="57" customWidth="1"/>
     <col min="4" max="4" width="31.265625" customWidth="1"/>
-    <col min="5" max="5" width="94.1328125" customWidth="1"/>
+    <col min="5" max="5" width="116" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -1499,7 +1518,7 @@
       <c r="C44" t="s">
         <v>80</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E44" s="6" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1507,7 +1526,7 @@
       <c r="C45" t="s">
         <v>79</v>
       </c>
-      <c r="E45" s="5"/>
+      <c r="E45" s="7"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B46" t="s">
@@ -1532,249 +1551,291 @@
       <c r="A53" t="s">
         <v>85</v>
       </c>
+      <c r="C53" t="s">
+        <v>171</v>
+      </c>
       <c r="E53" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>86</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D54" t="s">
-        <v>88</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="C54" t="s">
+        <v>169</v>
+      </c>
+      <c r="E54" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C55" s="1" t="s">
-        <v>91</v>
+        <v>170</v>
+      </c>
+      <c r="E55" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C56" t="s">
-        <v>92</v>
-      </c>
+      <c r="C56" s="1"/>
+      <c r="E56" s="2"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C57" t="s">
-        <v>93</v>
-      </c>
-      <c r="E57" t="s">
-        <v>100</v>
-      </c>
+      <c r="C57" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E57" s="2"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C58" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="57" x14ac:dyDescent="0.45">
-      <c r="C59" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>117</v>
+      <c r="C58" s="1"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C59" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C60" t="s">
-        <v>96</v>
+        <v>88</v>
+      </c>
+      <c r="E60" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C61" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C62" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="C62" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C63" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C64" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C65" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C66" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="C68" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="C69" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C70" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C71" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C72" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A74" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C74" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A75" s="1"/>
+      <c r="C75" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="C76" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E76" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C63" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C64" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A68" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C68" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="C69" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C70" s="1"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C71" t="s">
-        <v>102</v>
-      </c>
-      <c r="E71" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C72" t="s">
-        <v>103</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C73" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C74" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C75" t="s">
-        <v>107</v>
-      </c>
-    </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C77" t="s">
-        <v>109</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>141</v>
-      </c>
+      <c r="C77" s="1"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C78" t="s">
-        <v>110</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>140</v>
+        <v>95</v>
+      </c>
+      <c r="E78" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C79" t="s">
-        <v>111</v>
-      </c>
-      <c r="D79" t="s">
-        <v>143</v>
+        <v>96</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C80" t="s">
-        <v>112</v>
-      </c>
-      <c r="D80" t="s">
-        <v>144</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>140</v>
+        <v>101</v>
       </c>
     </row>
     <row r="81" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C81" t="s">
-        <v>113</v>
-      </c>
-      <c r="D81" t="s">
-        <v>142</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="83" spans="3:5" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="C83" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>116</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="82" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C82" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="84" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C84" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="85" spans="3:5" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="C85" s="1" t="s">
-        <v>145</v>
+        <v>102</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="85" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C85" t="s">
+        <v>103</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="86" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C86" t="s">
-        <v>146</v>
+        <v>104</v>
+      </c>
+      <c r="D86" t="s">
+        <v>136</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="87" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C87" t="s">
+        <v>105</v>
+      </c>
+      <c r="D87" t="s">
+        <v>137</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="88" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C88" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="89" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C89" t="s">
-        <v>149</v>
-      </c>
-      <c r="E89" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="90" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C90" t="s">
-        <v>150</v>
-      </c>
-      <c r="E90" t="s">
-        <v>159</v>
+        <v>106</v>
+      </c>
+      <c r="D88" t="s">
+        <v>135</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="90" spans="3:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="C90" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="91" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C91" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="92" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C92" t="s">
-        <v>152</v>
-      </c>
-      <c r="E92" t="s">
-        <v>160</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="92" spans="3:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="C92" s="1" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="93" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C93" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="95" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C95" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="96" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C96" t="s">
+        <v>142</v>
+      </c>
+      <c r="E96" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="97" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C97" t="s">
+        <v>143</v>
+      </c>
+      <c r="E97" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="98" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C98" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="99" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C99" t="s">
+        <v>145</v>
+      </c>
+      <c r="E99" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="94" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C94" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="96" spans="3:5" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="C96" s="1" t="s">
-        <v>155</v>
+    <row r="100" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C100" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="101" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C101" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="103" spans="3:5" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="C103" s="1" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -1790,91 +1851,91 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{539D9A10-AE5B-4C5A-9671-820D3AD70629}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W21" sqref="W21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="4" width="9.06640625" style="6"/>
-    <col min="5" max="5" width="11.33203125" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="9.06640625" style="6"/>
+    <col min="1" max="4" width="9.06640625" style="4"/>
+    <col min="5" max="5" width="11.33203125" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="9.06640625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A2" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A2" s="6" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B4" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A5" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="B5" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="G5" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="F2" s="6" t="s">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B6" s="4" t="s">
         <v>168</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A4" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A5" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B6" s="6" t="s">
-        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/variables.xlsx
+++ b/variables.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Academic\Caltech\Research\9DNS\channel_rough\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A76D81F-86AE-4A43-8084-35AFFA7CED01}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF5D70F-F942-4E8E-9CF8-0E108516D2CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="4272" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{403C3A4F-5479-4301-A5A6-5D3962BEC53A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{403C3A4F-5479-4301-A5A6-5D3962BEC53A}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
     <sheet name="Functions" sheetId="2" r:id="rId2"/>
     <sheet name="File Writing" sheetId="3" r:id="rId3"/>
+    <sheet name="Function fourxz" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="191">
   <si>
     <t>numprocs</t>
   </si>
@@ -361,9 +362,6 @@
     <t xml:space="preserve">        hyy = hy(j)</t>
   </si>
   <si>
-    <t>hy is a function of y ???</t>
-  </si>
-  <si>
     <t>everything to physical space
 the variables ending with r are the physical variable</t>
   </si>
@@ -615,33 +613,64 @@
     <t>This saves the result from previous step, but it is the step that is wanted, since the  assess_whether_to_collect_flowfield(istep) is after this line</t>
   </si>
   <si>
+    <t>ENDDO rkstep loop</t>
+  </si>
+  <si>
+    <t>call Lapv1(rf0u,u00wk,rk,bcbr,bctr)
+call Lapv1(rf0w,w00wk,rk,bcbr,bctr)</t>
+  </si>
+  <si>
+    <t>call Lapv1(rf0u,rf0u,rk,bcbr,bctr)
+call Lapv1(rf0w,rf0w,rk,bcbr,bctr)</t>
+  </si>
+  <si>
+    <t>if (ihist.eq.1) then write to cf and write to output file</t>
+  </si>
+  <si>
+    <t>time=time+Deltat</t>
+  </si>
+  <si>
     <t xml:space="preserve">    if (collectFlowfield .and. rkstep==1) then
            call save_velocity_at_wallparallel_plane_to_buffer
-           call save_vorticity_at_wallparallel_plane_to_buffer</t>
-  </si>
-  <si>
-    <t>ENDDO rkstep loop</t>
-  </si>
-  <si>
-    <t>call Lapv1(rf0u,u00wk,rk,bcbr,bctr)
-call Lapv1(rf0w,w00wk,rk,bcbr,bctr)</t>
-  </si>
-  <si>
-    <t>call Lapv1(rf0u,rf0u,rk,bcbr,bctr)
-call Lapv1(rf0w,rf0w,rk,bcbr,bctr)</t>
-  </si>
-  <si>
-    <t>if (ihist.eq.1) then write to cf and write to output file</t>
-  </si>
-  <si>
-    <t>time=time+Deltat</t>
+           call save_vorticity_at_wallparallel_plane_to_buffer
+    endif</t>
+  </si>
+  <si>
+    <t>hy is a function of y  that discribes the grid spacing</t>
+  </si>
+  <si>
+    <t>fourxz(fou,phys,iopt,mmy)</t>
+  </si>
+  <si>
+    <t>allocate(phys2((mgalx+2)*mgalz))</t>
+  </si>
+  <si>
+    <t>ift part (iopt&gt;=0)</t>
+  </si>
+  <si>
+    <t>call fill00rotate(fou,phys2,mmy)</t>
+  </si>
+  <si>
+    <t>call cft(phys2,2,2*mgalz,mx1+1,1)</t>
+  </si>
+  <si>
+    <t>call czx2xz(phys,phys2)</t>
+  </si>
+  <si>
+    <t>call rft(phys,mgalx+2,mmy*mgalz,1)</t>
+  </si>
+  <si>
+    <t>deallocate(phys2)</t>
+  </si>
+  <si>
+    <t>fill00(fou,foud,mmy)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -659,6 +688,12 @@
     <font>
       <sz val="11"/>
       <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -684,7 +719,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -699,6 +734,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1019,12 +1055,12 @@
       <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.86328125" customWidth="1"/>
+    <col min="1" max="1" width="27.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1035,7 +1071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1043,17 +1079,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1070,7 +1106,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1084,42 +1120,42 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -1130,97 +1166,97 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" t="s">
         <v>111</v>
       </c>
-      <c r="B24" t="s">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
+      <c r="B25" t="s">
         <v>113</v>
       </c>
-      <c r="B25" t="s">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
+      <c r="B26" t="s">
         <v>115</v>
       </c>
-      <c r="B26" t="s">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
+      <c r="B27" t="s">
         <v>117</v>
       </c>
-      <c r="B27" t="s">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
+      <c r="B28" t="s">
         <v>119</v>
       </c>
-      <c r="B28" t="s">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
+      <c r="B30" t="s">
         <v>121</v>
       </c>
-      <c r="B30" t="s">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>125</v>
+      </c>
+      <c r="B31" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>126</v>
+      </c>
+      <c r="B32" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
-        <v>126</v>
-      </c>
-      <c r="B31" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>127</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>128</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>129</v>
+      </c>
+      <c r="B35" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
-        <v>129</v>
-      </c>
-      <c r="B34" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
-        <v>130</v>
-      </c>
-      <c r="B35" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1232,20 +1268,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4635D2BC-5896-4FC7-82CD-225F6BC3F537}">
   <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView topLeftCell="C91" workbookViewId="0">
+      <selection activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.796875" customWidth="1"/>
-    <col min="2" max="2" width="15.265625" customWidth="1"/>
+    <col min="1" max="1" width="31.77734375" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" customWidth="1"/>
     <col min="3" max="3" width="57" customWidth="1"/>
-    <col min="4" max="4" width="31.265625" customWidth="1"/>
+    <col min="4" max="4" width="31.21875" customWidth="1"/>
     <col min="5" max="5" width="116" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>61</v>
       </c>
@@ -1256,12 +1292,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>57</v>
       </c>
@@ -1269,12 +1305,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>57</v>
       </c>
@@ -1288,7 +1324,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>57</v>
       </c>
@@ -1296,7 +1332,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>57</v>
       </c>
@@ -1304,7 +1340,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>57</v>
       </c>
@@ -1312,17 +1348,17 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>55</v>
       </c>
@@ -1330,7 +1366,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>57</v>
       </c>
@@ -1341,7 +1377,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>57</v>
       </c>
@@ -1355,7 +1391,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>57</v>
       </c>
@@ -1366,7 +1402,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>57</v>
       </c>
@@ -1377,7 +1413,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>57</v>
       </c>
@@ -1388,7 +1424,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>57</v>
       </c>
@@ -1396,12 +1432,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
         <v>47</v>
       </c>
@@ -1409,7 +1445,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
         <v>49</v>
       </c>
@@ -1417,7 +1453,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>43</v>
       </c>
@@ -1425,7 +1461,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
         <v>45</v>
       </c>
@@ -1433,7 +1469,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
         <v>50</v>
       </c>
@@ -1441,7 +1477,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>55</v>
       </c>
@@ -1452,7 +1488,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>55</v>
       </c>
@@ -1460,7 +1496,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>65</v>
       </c>
@@ -1468,7 +1504,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>57</v>
       </c>
@@ -1476,7 +1512,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>57</v>
       </c>
@@ -1484,7 +1520,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>57</v>
       </c>
@@ -1492,7 +1528,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>72</v>
       </c>
@@ -1503,7 +1539,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>78</v>
       </c>
@@ -1511,7 +1547,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>78</v>
       </c>
@@ -1522,13 +1558,13 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>79</v>
       </c>
       <c r="E45" s="7"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>78</v>
       </c>
@@ -1539,7 +1575,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>73</v>
       </c>
@@ -1547,55 +1583,55 @@
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>85</v>
       </c>
       <c r="C53" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E53" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>86</v>
       </c>
       <c r="C54" t="s">
+        <v>168</v>
+      </c>
+      <c r="E54" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C55" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E54" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C55" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="E55" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C56" s="1"/>
       <c r="E56" s="2"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E57" s="2"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C58" s="1"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C59" t="s">
         <v>172</v>
       </c>
-      <c r="E57" s="2"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C58" s="1"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C59" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>88</v>
       </c>
@@ -1603,239 +1639,239 @@
         <v>93</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>90</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C68" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C69" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C68" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C69" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C74" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="C75" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>94</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>95</v>
       </c>
       <c r="E78" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>96</v>
       </c>
-      <c r="E79" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E79" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C81" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="82" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C82" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="84" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C84" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="81" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C81" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="82" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C82" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C84" t="s">
+      <c r="E84" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="85" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C85" t="s">
         <v>102</v>
       </c>
-      <c r="E84" s="2" t="s">
+      <c r="E85" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="86" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C86" t="s">
+        <v>103</v>
+      </c>
+      <c r="D86" t="s">
+        <v>135</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="87" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C87" t="s">
+        <v>104</v>
+      </c>
+      <c r="D87" t="s">
+        <v>136</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="88" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C88" t="s">
+        <v>105</v>
+      </c>
+      <c r="D88" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="85" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C85" t="s">
-        <v>103</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="86" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C86" t="s">
-        <v>104</v>
-      </c>
-      <c r="D86" t="s">
-        <v>136</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="87" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C87" t="s">
-        <v>105</v>
-      </c>
-      <c r="D87" t="s">
+      <c r="E88" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="90" spans="3:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C90" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="91" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C91" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="92" spans="3:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C92" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E87" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="88" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C88" t="s">
-        <v>106</v>
-      </c>
-      <c r="D88" t="s">
-        <v>135</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="90" spans="3:5" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="C90" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="91" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C91" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="92" spans="3:5" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="C92" s="1" t="s">
+    </row>
+    <row r="93" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C93" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="93" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C93" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="95" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="95" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="96" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C96" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="96" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C96" t="s">
+      <c r="E96" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="97" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C97" t="s">
         <v>142</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E97" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="97" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C97" t="s">
+    <row r="98" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C98" t="s">
         <v>143</v>
       </c>
-      <c r="E97" t="s">
+    </row>
+    <row r="99" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C99" t="s">
+        <v>144</v>
+      </c>
+      <c r="E99" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="98" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C98" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="99" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C99" t="s">
+    <row r="100" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C100" t="s">
         <v>145</v>
       </c>
-      <c r="E99" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="100" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C100" t="s">
+    </row>
+    <row r="101" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C101" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="101" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C101" t="s">
+    <row r="103" spans="3:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="C103" s="1" t="s">
         <v>147</v>
-      </c>
-    </row>
-    <row r="103" spans="3:5" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="C103" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -1843,7 +1879,7 @@
     <mergeCell ref="E44:E45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1855,91 +1891,155 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="9.06640625" style="4"/>
+    <col min="1" max="4" width="9.109375" style="4"/>
     <col min="5" max="5" width="11.33203125" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="9.06640625" style="4"/>
+    <col min="6" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="4" t="s">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A4" s="4" t="s">
+      <c r="B4" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A5" s="4" t="s">
+      <c r="C5" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="I5" s="5" t="s">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
         <v>167</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B6" s="4" t="s">
-        <v>168</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EB848A5-1BAA-4E19-BC32-C6D34F5755DA}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="2" max="2" width="31.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/variables.xlsx
+++ b/variables.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Academic\Caltech\Research\9DNS\channel_rough\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Academic\Caltech\Research\5DNSCode\channel_rough\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF5D70F-F942-4E8E-9CF8-0E108516D2CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A632CAA-FDC3-4775-8302-D190FFD960BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{403C3A4F-5479-4301-A5A6-5D3962BEC53A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{403C3A4F-5479-4301-A5A6-5D3962BEC53A}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
     <sheet name="Functions" sheetId="2" r:id="rId2"/>
     <sheet name="File Writing" sheetId="3" r:id="rId3"/>
     <sheet name="Function fourxz" sheetId="4" r:id="rId4"/>
+    <sheet name="Derivatives" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="215">
   <si>
     <t>numprocs</t>
   </si>
@@ -91,9 +92,6 @@
   </si>
   <si>
     <t>parameter(blockingik2ki=64)        !!! divisor of mgalz !!!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      parameter(blockingki2ik=64)       !!! divisor of mgalz !!!</t>
   </si>
   <si>
     <t>mgalx1=mgalx-1,mgalz1=mgalz-1</t>
@@ -434,36 +432,6 @@
     <t>omega_2</t>
   </si>
   <si>
-    <t>u1</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>omega_1</t>
-  </si>
-  <si>
-    <t>omega_3</t>
-  </si>
-  <si>
-    <t>u2</t>
-  </si>
-  <si>
-    <t>u3</t>
-  </si>
-  <si>
-    <t>o1</t>
-  </si>
-  <si>
-    <t>o2</t>
-  </si>
-  <si>
-    <t>o3</t>
-  </si>
-  <si>
     <t>hvhg(phic,ome2c,rhvc,rhgc,
      .     rf0u,rf0w,ome1c,
      .     work2,sp,myid,rkstep, 
@@ -664,6 +632,111 @@
   </si>
   <si>
     <t>fill00(fou,foud,mmy)</t>
+  </si>
+  <si>
+    <t>parameter(blockingki2ik=64)       !!! divisor of mgalz !!!</t>
+  </si>
+  <si>
+    <t>fou: size [0:mx/2-1, 0:mz-1]</t>
+  </si>
+  <si>
+    <t>foud: size [0:mgalx/2, 0: mgalz-1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c </t>
+  </si>
+  <si>
+    <t>[1/3,1/2,1]</t>
+  </si>
+  <si>
+    <t>RK parameters in cross1</t>
+  </si>
+  <si>
+    <t>dtr = Re/Deltat</t>
+  </si>
+  <si>
+    <t>r1 = c(rkstep)*Deltat</t>
+  </si>
+  <si>
+    <t>dtr1 = dtr/c(rkstep) = Re/r1</t>
+  </si>
+  <si>
+    <t>trp, trp2</t>
+  </si>
+  <si>
+    <t>trapezoid integration in y (also divided by the channel height 2)</t>
+  </si>
+  <si>
+    <t>banbks5(a,n,b)</t>
+  </si>
+  <si>
+    <t>bandec5(a,n)</t>
+  </si>
+  <si>
+    <t>First derivative</t>
+  </si>
+  <si>
+    <t>dt11</t>
+  </si>
+  <si>
+    <t>dt12</t>
+  </si>
+  <si>
+    <t>are coefficents for 5 diag matrix DT11 and DT12</t>
+  </si>
+  <si>
+    <t>Second derivative</t>
+  </si>
+  <si>
+    <t>dt21</t>
+  </si>
+  <si>
+    <t>dt22</t>
+  </si>
+  <si>
+    <t>are coefficents for 5 diag matrix DT21 and DT22</t>
+  </si>
+  <si>
+    <t>DT21*d2u = DT22*u</t>
+  </si>
+  <si>
+    <t>DT11*d1u = DT12*u</t>
+  </si>
+  <si>
+    <t>n is the matrix size 2</t>
+  </si>
+  <si>
+    <t>update a</t>
+  </si>
+  <si>
+    <t>update b</t>
+  </si>
+  <si>
+    <t>dt11 = bandec5(dt11)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">du = banbks5(dt11, DT12*u) </t>
+  </si>
+  <si>
+    <t>These are here to solve the linear system</t>
+  </si>
+  <si>
+    <t>Lapv1(f2,fwk,rK,bcb,bct)</t>
+  </si>
+  <si>
+    <t>fwk is output</t>
+  </si>
+  <si>
+    <t>solves fwk'' - rk*fwk = f2</t>
+  </si>
+  <si>
+    <t>f2 is input</t>
+  </si>
+  <si>
+    <t>rk is constant input</t>
+  </si>
+  <si>
+    <t>bcb, bct are input boundary conditions</t>
   </si>
 </sst>
 </file>
@@ -719,7 +792,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -728,13 +801,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1049,10 +1125,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95F34238-4A8A-4261-BDD8-D2796D14F6B4}">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1086,7 +1162,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -1122,37 +1198,45 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>189</v>
+      </c>
+      <c r="B17" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1168,95 +1252,73 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24" t="s">
         <v>110</v>
-      </c>
-      <c r="B24" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25" t="s">
         <v>112</v>
-      </c>
-      <c r="B25" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>113</v>
+      </c>
+      <c r="B26" t="s">
         <v>114</v>
-      </c>
-      <c r="B26" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>115</v>
+      </c>
+      <c r="B27" t="s">
         <v>116</v>
-      </c>
-      <c r="B27" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>117</v>
+      </c>
+      <c r="B28" t="s">
         <v>118</v>
       </c>
-      <c r="B28" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>120</v>
-      </c>
-      <c r="B30" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>125</v>
-      </c>
-      <c r="B31" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>126</v>
-      </c>
-      <c r="B32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>127</v>
-      </c>
-      <c r="B33" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>128</v>
-      </c>
-      <c r="B34" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>129</v>
-      </c>
-      <c r="B35" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>149</v>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>183</v>
+      </c>
+      <c r="B44" t="s">
+        <v>184</v>
+      </c>
+      <c r="D44" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -1268,7 +1330,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4635D2BC-5896-4FC7-82CD-225F6BC3F537}">
   <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView topLeftCell="C91" workbookViewId="0">
+    <sheetView topLeftCell="C163" workbookViewId="0">
       <selection activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
@@ -1283,334 +1345,334 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" t="s">
         <v>61</v>
       </c>
-      <c r="B1" t="s">
-        <v>62</v>
-      </c>
       <c r="D1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" t="s">
         <v>35</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>36</v>
-      </c>
-      <c r="E16" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" t="s">
         <v>47</v>
-      </c>
-      <c r="E26" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" t="s">
         <v>43</v>
-      </c>
-      <c r="E28" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" t="s">
         <v>45</v>
-      </c>
-      <c r="E29" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" t="s">
         <v>50</v>
-      </c>
-      <c r="E30" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" t="s">
         <v>55</v>
-      </c>
-      <c r="C34" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" t="s">
         <v>65</v>
-      </c>
-      <c r="C35" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C44" t="s">
+        <v>79</v>
+      </c>
+      <c r="E44" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
-        <v>79</v>
-      </c>
-      <c r="E45" s="7"/>
+        <v>78</v>
+      </c>
+      <c r="E45" s="8"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C46" t="s">
+        <v>81</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E49" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C53" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="E53" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C54" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="E54" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="E55" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -1619,7 +1681,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="E57" s="2"/>
     </row>
@@ -1628,95 +1690,95 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E60" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="C74" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="C75" s="1" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
@@ -1724,154 +1786,154 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E78" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
-        <v>96</v>
-      </c>
-      <c r="E79" s="8" t="s">
-        <v>181</v>
+        <v>95</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="81" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="82" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="85" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="86" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D86" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="87" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D87" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="88" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D88" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="90" spans="3:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E90" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="91" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="92" spans="3:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="93" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="95" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="96" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C96" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="E96" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="97" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="E97" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="98" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="99" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="E99" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="100" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C100" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="101" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C101" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="103" spans="3:5" ht="72" x14ac:dyDescent="0.3">
       <c r="C103" s="1" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -1900,78 +1962,78 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>166</v>
-      </c>
       <c r="J5" s="5" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -1982,10 +2044,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EB848A5-1BAA-4E19-BC32-C6D34F5755DA}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1996,50 +2058,180 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>190</v>
+        <v>179</v>
+      </c>
+      <c r="B15" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1EE866F-E7AE-459B-AB4F-DFB218E4E69E}">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.21875" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" customWidth="1"/>
+    <col min="4" max="4" width="43.88671875" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>206</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>207</v>
+      </c>
+      <c r="B10" s="9"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>209</v>
+      </c>
+      <c r="B15" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>214</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B9:B10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/variables.xlsx
+++ b/variables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Academic\Caltech\Research\5DNSCode\channel_rough\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A632CAA-FDC3-4775-8302-D190FFD960BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFAA7FB8-D04D-4563-A849-19B1DE33536B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{403C3A4F-5479-4301-A5A6-5D3962BEC53A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{403C3A4F-5479-4301-A5A6-5D3962BEC53A}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="213">
   <si>
     <t>numprocs</t>
   </si>
@@ -610,39 +610,9 @@
     <t>fourxz(fou,phys,iopt,mmy)</t>
   </si>
   <si>
-    <t>allocate(phys2((mgalx+2)*mgalz))</t>
-  </si>
-  <si>
-    <t>ift part (iopt&gt;=0)</t>
-  </si>
-  <si>
-    <t>call fill00rotate(fou,phys2,mmy)</t>
-  </si>
-  <si>
-    <t>call cft(phys2,2,2*mgalz,mx1+1,1)</t>
-  </si>
-  <si>
-    <t>call czx2xz(phys,phys2)</t>
-  </si>
-  <si>
-    <t>call rft(phys,mgalx+2,mmy*mgalz,1)</t>
-  </si>
-  <si>
-    <t>deallocate(phys2)</t>
-  </si>
-  <si>
-    <t>fill00(fou,foud,mmy)</t>
-  </si>
-  <si>
     <t>parameter(blockingki2ik=64)       !!! divisor of mgalz !!!</t>
   </si>
   <si>
-    <t>fou: size [0:mx/2-1, 0:mz-1]</t>
-  </si>
-  <si>
-    <t>foud: size [0:mgalx/2, 0: mgalz-1]</t>
-  </si>
-  <si>
     <t xml:space="preserve">c </t>
   </si>
   <si>
@@ -737,6 +707,30 @@
   </si>
   <si>
     <t>bcb, bct are input boundary conditions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iopt &gt; 0 </t>
+  </si>
+  <si>
+    <t>physical to Fourier transform</t>
+  </si>
+  <si>
+    <t>input: phys</t>
+  </si>
+  <si>
+    <t>output: fou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iopt &lt; 0 </t>
+  </si>
+  <si>
+    <t>Fourier to physical transform</t>
+  </si>
+  <si>
+    <t>input: fou</t>
+  </si>
+  <si>
+    <t>output: phys</t>
   </si>
 </sst>
 </file>
@@ -1127,7 +1121,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95F34238-4A8A-4261-BDD8-D2796D14F6B4}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
@@ -1162,7 +1156,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -1233,10 +1227,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="B17" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1297,28 +1291,28 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="B44" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="D44" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -1330,7 +1324,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4635D2BC-5896-4FC7-82CD-225F6BC3F537}">
   <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView topLeftCell="C163" workbookViewId="0">
+    <sheetView topLeftCell="C136" workbookViewId="0">
       <selection activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
@@ -2044,69 +2038,51 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EB848A5-1BAA-4E19-BC32-C6D34F5755DA}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.6640625" customWidth="1"/>
     <col min="2" max="2" width="31.5546875" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>209</v>
+      </c>
       <c r="B2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+      <c r="C2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>179</v>
-      </c>
-      <c r="B15" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>182</v>
+        <v>205</v>
+      </c>
+      <c r="B3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D3" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -2132,99 +2108,99 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B1" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C1" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="D1" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="E1" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="B2" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="C2" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D2" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="E2" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B6" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="B7" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="B10" s="9"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="B15" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/variables.xlsx
+++ b/variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Academic\Caltech\Research\5DNSCode\channel_rough\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{219C3C75-0DE9-459A-ADE3-3583C34A997D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{632E80EE-73C0-41A3-BE41-835CF2AD0176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="15586" activeTab="2" xr2:uid="{403C3A4F-5479-4301-A5A6-5D3962BEC53A}"/>
+    <workbookView xWindow="1100" yWindow="1220" windowWidth="23040" windowHeight="12013" activeTab="2" xr2:uid="{403C3A4F-5479-4301-A5A6-5D3962BEC53A}"/>
   </bookViews>
   <sheets>
     <sheet name="Global Variables" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="124">
   <si>
     <t>numprocs</t>
   </si>
@@ -432,6 +432,15 @@
   </si>
   <si>
     <t>parameter(blockingki2ik=64)       !!! divisor of mgalz !!!</t>
+  </si>
+  <si>
+    <t>uv at bottom wall</t>
+  </si>
+  <si>
+    <t>uv at top wall</t>
+  </si>
+  <si>
+    <t>- plane average omeg3 at bottom wall</t>
   </si>
 </sst>
 </file>
@@ -1372,10 +1381,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{539D9A10-AE5B-4C5A-9671-820D3AD70629}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1416,48 +1425,64 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A4" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>94</v>
-      </c>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="E3" s="5"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A5" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A6" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I6" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J6" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="B6" s="4" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="C7" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="B8" s="4" t="s">
         <v>107</v>
       </c>
     </row>
